--- a/Material/confusion matrix.xlsx
+++ b/Material/confusion matrix.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\studies\nirma\Sem-5\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SEM 5\ML\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303C9CEB-ABC3-43B1-8685-8AA9B616D154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9600"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>precision</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Sum of diagonal</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>total sum</t>
   </si>
@@ -41,18 +33,6 @@
     <t>accuracy</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Recall</t>
   </si>
   <si>
@@ -81,13 +61,19 @@
   </si>
   <si>
     <t>sumation(class sum row*class recall)</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Diagonal Sum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,8 +102,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +131,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,11 +153,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -442,304 +449,298 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>25</v>
       </c>
-      <c r="B1">
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C1">
+      <c r="D2">
         <v>20</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>30</v>
       </c>
-      <c r="E1">
+      <c r="F2">
         <v>67</v>
       </c>
-      <c r="F1" s="1">
-        <f>SUM(A1:E1)</f>
+      <c r="G2" s="1">
+        <f>SUM(B2:F2)</f>
         <v>152</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="H2" s="8">
+        <f>B2/SUM(B2:F2)</f>
+        <v>0.16447368421052633</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <f>SUM(B2+C3+D4+E5+F6)</f>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>25</v>
       </c>
-      <c r="B2">
+      <c r="C3">
         <v>29</v>
       </c>
-      <c r="C2">
+      <c r="D3">
         <v>43</v>
       </c>
-      <c r="D2">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="F3">
         <v>43</v>
       </c>
-      <c r="F2" s="1">
-        <f>SUM(A2:E2)</f>
+      <c r="G3" s="1">
+        <f>SUM(B3:F3)</f>
         <v>142</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H3" s="8">
+        <f>C3/SUM(B3:F3)</f>
+        <v>0.20422535211267606</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1">
+        <f>SUM(B4:F4)</f>
+        <v>99</v>
+      </c>
+      <c r="H4" s="8">
+        <f>D4/SUM(B4:F4)</f>
+        <v>0.22222222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>67</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <f>SUM(B5:F5)</f>
+        <v>184</v>
+      </c>
+      <c r="H5" s="8">
+        <f>E5/SUM(B5:F5)</f>
+        <v>0.17391304347826086</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>54</v>
+      </c>
+      <c r="E6">
+        <v>65</v>
+      </c>
+      <c r="F6">
+        <v>89</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(B6:F6)</f>
+        <v>241</v>
+      </c>
+      <c r="H6" s="8">
+        <f>F6/SUM(B6:F6)</f>
+        <v>0.36929460580912865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <f>SUM(B2:B6)</f>
+        <v>112</v>
+      </c>
+      <c r="C7" s="2">
+        <f>SUM(C2:C6)</f>
+        <v>123</v>
+      </c>
+      <c r="D7" s="2">
+        <f>SUM(D2:D6)</f>
+        <v>206</v>
+      </c>
+      <c r="E7" s="2">
+        <f>SUM(E2:E6)</f>
+        <v>150</v>
+      </c>
+      <c r="F7" s="2">
+        <f>SUM(F2:F6)</f>
+        <v>227</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="D7:G7" si="0">SUM(G2:G6)</f>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>28</v>
-      </c>
-      <c r="B3">
+      <c r="B8" s="10">
+        <f>B2/SUM(B2:B6)</f>
+        <v>0.22321428571428573</v>
+      </c>
+      <c r="C8" s="10">
+        <f>C3/SUM(C2:C6)</f>
+        <v>0.23577235772357724</v>
+      </c>
+      <c r="D8" s="10">
+        <f>D4/SUM(D2:D6)</f>
+        <v>0.10679611650485436</v>
+      </c>
+      <c r="E8" s="10">
+        <f>E5/SUM(E2:E6)</f>
+        <v>0.21333333333333335</v>
+      </c>
+      <c r="F8" s="10">
+        <f>F6/SUM(F2:F6)</f>
+        <v>0.39207048458149779</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>SUM(B2:F6)</f>
+        <v>818</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <f>N2/J8</f>
+        <v>0.24083129584352078</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>22</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F5" si="0">SUM(A3:E3)</f>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>33</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
-      </c>
-      <c r="C4">
-        <v>67</v>
-      </c>
-      <c r="D4">
-        <v>32</v>
-      </c>
-      <c r="E4">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>54</v>
-      </c>
-      <c r="D5">
-        <v>65</v>
-      </c>
-      <c r="E5">
-        <v>89</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <f>SUM(A1:A5)</f>
-        <v>112</v>
-      </c>
-      <c r="B6" s="2">
-        <f>SUM(B1:B5)</f>
-        <v>123</v>
-      </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:F6" si="1">SUM(C1:C5)</f>
-        <v>206</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="1"/>
-        <v>227</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <f>SUM(A1+B2+C3+D4+E5)</f>
-        <v>197</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <f>SUM(A1:E5)</f>
-        <v>818</v>
-      </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <f>F7/I7</f>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="6">
+        <f>(B7*B8 + C7*C8 + D7*D8 +E7*E9 + F7*F9)/G7</f>
+        <v>9.2909535452322736E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <f>(G2*H2 + G3*H3+G4*H4+G5*H5+G6*H6)/G7</f>
         <v>0.24083129584352078</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <f>A1/SUM(A1:A5)</f>
-        <v>0.22321428571428573</v>
-      </c>
-      <c r="H10">
-        <f>A1/SUM(A1:E1)</f>
-        <v>0.16447368421052633</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <f>B2/SUM(B1:B5)</f>
-        <v>0.23577235772357724</v>
-      </c>
-      <c r="H11">
-        <f>B2/SUM(A2:E2)</f>
-        <v>0.20422535211267606</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <f>C3/SUM(C1:C5)</f>
-        <v>0.10679611650485436</v>
-      </c>
-      <c r="H12">
-        <f>C3/SUM(A3:E3)</f>
-        <v>0.22222222222222221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13">
-        <f>D4/SUM(D1:D5)</f>
-        <v>0.21333333333333335</v>
-      </c>
-      <c r="H13">
-        <f>D4/SUM(A4:E4)</f>
-        <v>0.17391304347826086</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
+      <c r="K18" s="5">
+        <f>(2*G18*I18)/(G18+I18)</f>
+        <v>0.13408921966379178</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14">
-        <f>E5/SUM(E1:E5)</f>
-        <v>0.39207048458149779</v>
-      </c>
-      <c r="H14">
-        <f>E5/SUM(E1:E5)</f>
-        <v>0.39207048458149779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="F17" s="3">
-        <f>(A6*F10 + B6*F11 + C6*F12 +D6*F13 + E6*F14)/F6</f>
-        <v>0.24083129584352078</v>
-      </c>
-      <c r="H17" s="3">
-        <f>(F1*H10 + F2*H11+F3*H12+F4*H13+F5*H14)/F6</f>
-        <v>0.24754154863586914</v>
-      </c>
-      <c r="J17">
-        <f>(2*F17*H17)/(F17+H17)</f>
-        <v>0.24414032273493522</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
